--- a/studentCompetencySheet.xlsx
+++ b/studentCompetencySheet.xlsx
@@ -13,6 +13,18 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId15"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId16"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId17"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId18"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId19"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId20"/>
+    <sheet name="Worksheet 1" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Identitas pelajaran</t>
   </si>
@@ -31,19 +43,19 @@
     <t>:</t>
   </si>
   <si>
-    <t>teguh permadi</t>
+    <t>Laila Permata Sani, S.Pd</t>
   </si>
   <si>
     <t>Mata Pelajaran</t>
   </si>
   <si>
-    <t>Matematika</t>
+    <t>Agama dan Nilai Moral</t>
   </si>
   <si>
     <t>Kelas</t>
   </si>
   <si>
-    <t>kelas 6</t>
+    <t>A-2</t>
   </si>
   <si>
     <t>Tahun Akademik</t>
@@ -61,7 +73,7 @@
     <t>Kompetensi</t>
   </si>
   <si>
-    <t>Menjelaskan bilangan bulat negatif (termasuk menggunakan garis bilangan)</t>
+    <t>Mengenal dan percaya kepada Allah SWT melalui Asmaul Husna</t>
   </si>
   <si>
     <t>nis</t>
@@ -82,103 +94,97 @@
     <t>score</t>
   </si>
   <si>
-    <t>MUHAMMAD ZHAFIR FERDIANSYAH ALTHAF</t>
+    <t>MUHAMMAD NUR FAIZNATA RAFI</t>
   </si>
   <si>
-    <t>ATHA'ILAH NAFIS RAYKHAN</t>
+    <t>MUHAMMAD GIBRAN FAUZI</t>
   </si>
   <si>
-    <t>MUHAMMAD NABIL ARSYAD</t>
+    <t>MUHAMMAD DHAFIN ARSENIO MAVENDRA</t>
   </si>
   <si>
-    <t>DANISH ATHAILLAH PRADIPTA</t>
+    <t>MUHAMMAD ALBIZAR</t>
   </si>
   <si>
-    <t>MUHAMMAD FAIZ NUR HAFIDZ</t>
+    <t>MISEL ZONIRA PUTRI SANTOSO</t>
   </si>
   <si>
-    <t>ACHMAD KURNIAWAN</t>
+    <t>UZAIR PARADIPA</t>
   </si>
   <si>
-    <t>MUHAMMAD FAISAL AL FAKHRISI</t>
+    <t>JERYKO RAGIL WIDODO</t>
   </si>
   <si>
-    <t>RAJENDRA ARYA BAYU YUDHISTIRA</t>
+    <t>AHMAD EL HAFIZI</t>
   </si>
   <si>
-    <t>MUHAMMAD RAQI AZAM MAULANA</t>
+    <t>ALMIRA VANIA ATABINA</t>
   </si>
   <si>
-    <t>ATHAYA RAYYAN KEANU PRIBADI</t>
+    <t>ARZIQI AMEIRA FEBRIANTI</t>
   </si>
   <si>
-    <t>HARVANTYO ABBAD ZIZOU SANTOSO</t>
+    <t>SANIA AYU ARIMBI</t>
   </si>
   <si>
-    <t>EL MAGHRIBI KALLE NALENDRA</t>
+    <t>AMELIA RAHAGI ARUNDATI</t>
   </si>
   <si>
-    <t>ARKAN KENZIE PRASETYA</t>
+    <t>NAILA MAGHFIROH ROBBANI</t>
   </si>
   <si>
-    <t>AJI SYAPUTRA</t>
+    <t>ABIMANA ADNAN IRAWAN</t>
   </si>
   <si>
-    <t>ACHMADIKA HUSYAIN</t>
+    <t>IBRAHIM ATTAR ALFARIZI</t>
   </si>
   <si>
-    <t>SATRIA WANAMANDALA GINTING</t>
+    <t>Mengenal dan percaya kepada Allah SWT melalui Ciptaan-Nya</t>
   </si>
   <si>
-    <t>MUHAMMAD ZIGGY SAVERIO CALIEF</t>
+    <t>Rukun iman</t>
   </si>
   <si>
-    <t>FAIZAL NUR IKHSAN</t>
+    <t>Alqur’an sebagai pedoman hidup</t>
   </si>
   <si>
-    <t>MUHAMMAD AQIL AZIZI</t>
+    <t>Al-Hadis sebagai pedoman hidup</t>
   </si>
   <si>
-    <t>RAHMAH FAZILA PUTRI</t>
+    <t>Kegiatan beribadah (Syahadat, wudhu, sholat,puasa, zakat, haji)</t>
   </si>
   <si>
-    <t>ALLIYA AZZAHRA PUTRI BASKURI ACHMAD</t>
+    <t>Adab dalam kehidupan sehari-hari</t>
   </si>
   <si>
-    <t>RAFA ANDIKA ABIYU</t>
+    <t>Kalimat Thayibah</t>
   </si>
   <si>
-    <t>AWAN SWARGA PANJI ASMORO</t>
+    <t>Menghargai perbedaan</t>
   </si>
   <si>
-    <t>ARHABURRIZQI ZAIDAN ATHALLAH</t>
+    <t>Kisah nabi dan para sahabat</t>
   </si>
   <si>
-    <t>KAMAY KEGY ANINDITA</t>
+    <t>Kosakata bahasa arab secara lisan</t>
   </si>
   <si>
-    <t>MUHAMMAD ALFATIH</t>
+    <t>Kosakata Bahasa arab secara tertulis</t>
   </si>
   <si>
-    <t>ANANTAVIRYA SATWIKA PUTRA</t>
+    <t>Kebersihan diri sebagai bentuk rasa sayangterhadap dirinya dan syukur kepada Allah SWT</t>
   </si>
   <si>
-    <t>TALITHA PUTRI PAMBAYUN</t>
+    <t>Kesehatan diri sebagai bentuk rasa saying terhadap dirinya dan syukur kepada Allah SWT</t>
   </si>
   <si>
-    <t>Menggunakan konsep bilangan bulat negatif (termasuk menggunakan garis bilangan) untuk menyatakan situasi sehari-hari</t>
+    <t>Keselamatan diri sebagai bentuk rasa sayangterhadap dirinya dan syukur kepada Allah SWT</t>
   </si>
   <si>
-    <t>Menjelaskan dan melakukan operasi penjumlahan, pengurangan, perkalian, dan pembagian yang melibatkan bilangan bulat negatif</t>
+    <t>Merawat dan menyayangi makhluk hidup ciptaan Allah SWT</t>
   </si>
   <si>
-    <t>Menyelesaikan masalah yang berkaitan dengan operasi penjumlahan, pengurangan, perkalian, dan pembagian yang melibatkan bilangan bulat negatif dalam kehidupan sehari-hari</t>
-  </si>
-  <si>
-    <t>Menjelaskan dan melakukan operasi hitung campuran yang melibatkan bilangan cacah, pecahan dan/atau desimal dalam berbagai bentuk sesuai urutan operasi</t>
-  </si>
-  <si>
-    <t>Menyelesaikan masalah yang berkaitan operasi hitung campuran yang melibatkan bilangan cacah, pecahan dan/atau desimal dalam berbagai bentuk sesuai urutan operasi</t>
+    <t>Merawat lingkungan sekitar</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,565 +631,3741 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>178</v>
-      </c>
-      <c r="F26">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>178</v>
-      </c>
-      <c r="F27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>178</v>
-      </c>
-      <c r="F28">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>178</v>
-      </c>
-      <c r="F29">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>178</v>
-      </c>
-      <c r="F30">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>178</v>
-      </c>
-      <c r="F31">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>178</v>
-      </c>
-      <c r="F32">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>178</v>
-      </c>
-      <c r="F33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>178</v>
-      </c>
-      <c r="F34">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>178</v>
-      </c>
-      <c r="F35">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>178</v>
-      </c>
-      <c r="F36">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>178</v>
-      </c>
-      <c r="F37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>178</v>
-      </c>
-      <c r="F38">
-        <v>80</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1204,7 +4386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1311,562 +4493,302 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>179</v>
-      </c>
-      <c r="F26">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>179</v>
-      </c>
-      <c r="F27">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>179</v>
-      </c>
-      <c r="F28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>179</v>
-      </c>
-      <c r="F29">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>179</v>
-      </c>
-      <c r="F30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>179</v>
-      </c>
-      <c r="F31">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>179</v>
-      </c>
-      <c r="F32">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>179</v>
-      </c>
-      <c r="F33">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>179</v>
-      </c>
-      <c r="F34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>179</v>
-      </c>
-      <c r="F35">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>179</v>
-      </c>
-      <c r="F36">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>179</v>
-      </c>
-      <c r="F37">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>179</v>
-      </c>
-      <c r="F38">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +4812,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1997,562 +4919,302 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>180</v>
-      </c>
-      <c r="F26">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>180</v>
-      </c>
-      <c r="F27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>180</v>
-      </c>
-      <c r="F28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>180</v>
-      </c>
-      <c r="F29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>180</v>
-      </c>
-      <c r="F30">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>180</v>
-      </c>
-      <c r="F31">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>180</v>
-      </c>
-      <c r="F32">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>180</v>
-      </c>
-      <c r="F33">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>180</v>
-      </c>
-      <c r="F34">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>180</v>
-      </c>
-      <c r="F35">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>180</v>
-      </c>
-      <c r="F36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>180</v>
-      </c>
-      <c r="F37">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>180</v>
-      </c>
-      <c r="F38">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +5238,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2683,562 +5345,302 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>181</v>
-      </c>
-      <c r="F26">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>181</v>
-      </c>
-      <c r="F27">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>181</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>181</v>
-      </c>
-      <c r="F29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>181</v>
-      </c>
-      <c r="F30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>181</v>
-      </c>
-      <c r="F31">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>181</v>
-      </c>
-      <c r="F32">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>181</v>
-      </c>
-      <c r="F33">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>181</v>
-      </c>
-      <c r="F34">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>181</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>181</v>
-      </c>
-      <c r="F36">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>181</v>
-      </c>
-      <c r="F37">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>181</v>
-      </c>
-      <c r="F38">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +5664,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3344,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3369,562 +5771,302 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>182</v>
-      </c>
-      <c r="F26">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>182</v>
-      </c>
-      <c r="F27">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>182</v>
-      </c>
-      <c r="F28">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>182</v>
-      </c>
-      <c r="F29">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>182</v>
-      </c>
-      <c r="F30">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>182</v>
-      </c>
-      <c r="F31">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>182</v>
-      </c>
-      <c r="F32">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>182</v>
-      </c>
-      <c r="F33">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>182</v>
-      </c>
-      <c r="F34">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>182</v>
-      </c>
-      <c r="F35">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>182</v>
-      </c>
-      <c r="F36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>182</v>
-      </c>
-      <c r="F37">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>182</v>
-      </c>
-      <c r="F38">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +6090,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4030,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4055,562 +6197,1580 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2018001</v>
+        <v>3183651619</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2018002</v>
+        <v>3183529391</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2018003</v>
+        <v>3186518013</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2018004</v>
+        <v>3177905470</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2018005</v>
+        <v>3180996988</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2018006</v>
+        <v>3183564958</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2018007</v>
+        <v>3185486903</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2018008</v>
+        <v>3181414051</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2018009</v>
+        <v>3194759043</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2018010</v>
+        <v>3181558476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2018011</v>
+        <v>3187903701</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2018012</v>
+        <v>3181436965</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>2018013</v>
+        <v>3194408859</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2018014</v>
+        <v>3186372562</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2018015</v>
+        <v>3188549464</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>2018016</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>63</v>
-      </c>
-      <c r="D26">
-        <v>101</v>
-      </c>
-      <c r="E26">
-        <v>183</v>
-      </c>
-      <c r="F26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>2018017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27">
-        <v>183</v>
-      </c>
-      <c r="F27">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>2018018</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>103</v>
-      </c>
-      <c r="E28">
-        <v>183</v>
-      </c>
-      <c r="F28">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>2018019</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>183</v>
-      </c>
-      <c r="F29">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>2018020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>183</v>
-      </c>
-      <c r="F30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2018021</v>
-      </c>
-      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="C31">
-        <v>63</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>183</v>
-      </c>
-      <c r="F31">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>2018022</v>
-      </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="C32">
-        <v>63</v>
-      </c>
-      <c r="D32">
-        <v>107</v>
-      </c>
-      <c r="E32">
-        <v>183</v>
-      </c>
-      <c r="F32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>2018023</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>183</v>
-      </c>
-      <c r="F33">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>2018024</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>109</v>
-      </c>
-      <c r="E34">
-        <v>183</v>
-      </c>
-      <c r="F34">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>2018025</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>110</v>
-      </c>
-      <c r="E35">
-        <v>183</v>
-      </c>
-      <c r="F35">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>2018026</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36">
-        <v>63</v>
-      </c>
-      <c r="D36">
-        <v>111</v>
-      </c>
-      <c r="E36">
-        <v>183</v>
-      </c>
-      <c r="F36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>2018027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>63</v>
-      </c>
-      <c r="D37">
-        <v>112</v>
-      </c>
-      <c r="E37">
-        <v>183</v>
-      </c>
-      <c r="F37">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>2018028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>113</v>
-      </c>
-      <c r="E38">
-        <v>183</v>
-      </c>
-      <c r="F38">
-        <v>92</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3183651619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3183529391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3186518013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3177905470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3180996988</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3183564958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3185486903</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>3181414051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3194759043</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3181558476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>3187903701</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>3181436965</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3194408859</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>3186372562</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>3188549464</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/studentCompetencySheet.xlsx
+++ b/studentCompetencySheet.xlsx
@@ -10,6 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Identitas pelajaran</t>
   </si>
@@ -28,19 +33,19 @@
     <t>:</t>
   </si>
   <si>
-    <t>Laila Permata Sani, S.Pd</t>
+    <t>teguh permadi</t>
   </si>
   <si>
     <t>Mata Pelajaran</t>
   </si>
   <si>
-    <t>Agama dan Nilai Moral</t>
+    <t>Matematika</t>
   </si>
   <si>
     <t>Kelas</t>
   </si>
   <si>
-    <t>kelas a-2</t>
+    <t>kelas 6</t>
   </si>
   <si>
     <t>Tahun Akademik</t>
@@ -58,7 +63,7 @@
     <t>Kompetensi</t>
   </si>
   <si>
-    <t>deskripsi anm 1</t>
+    <t>Menjelaskan bilangan bulat negatif (termasuk menggunakan garis bilangan)</t>
   </si>
   <si>
     <t>nis</t>
@@ -79,19 +84,109 @@
     <t>score</t>
   </si>
   <si>
-    <t>MUHAMMAD NUR FAIZNATA RAFI</t>
+    <t>MUHAMMAD ZHAFIR FERDIANSYAH ALTHAF</t>
   </si>
   <si>
-    <t>MUHAMMAD GIBRAN FAUZI</t>
+    <t>ATHA'ILAH NAFIS RAYKHAN</t>
   </si>
   <si>
-    <t>MUHAMMAD DHAFIN ARSENIO MAVENDRA</t>
+    <t>MUHAMMAD NABIL ARSYAD</t>
   </si>
   <si>
-    <t>deskripsi anm 2</t>
+    <t>DANISH ATHAILLAH PRADIPTA</t>
   </si>
   <si>
-    <t>deskripsi anm 3</t>
+    <t>MUHAMMAD FAIZ NUR HAFIDZ</t>
+  </si>
+  <si>
+    <t>ACHMAD KURNIAWAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAISAL AL FAKHRISI</t>
+  </si>
+  <si>
+    <t>RAJENDRA ARYA BAYU YUDHISTIRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAQI AZAM MAULANA</t>
+  </si>
+  <si>
+    <t>ATHAYA RAYYAN KEANU PRIBADI</t>
+  </si>
+  <si>
+    <t>HARVANTYO ABBAD ZIZOU SANTOSO</t>
+  </si>
+  <si>
+    <t>EL MAGHRIBI KALLE NALENDRA</t>
+  </si>
+  <si>
+    <t>ARKAN KENZIE PRASETYA</t>
+  </si>
+  <si>
+    <t>AJI SYAPUTRA</t>
+  </si>
+  <si>
+    <t>ACHMADIKA HUSYAIN</t>
+  </si>
+  <si>
+    <t>SATRIA WANAMANDALA GINTING</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZIGGY SAVERIO CALIEF</t>
+  </si>
+  <si>
+    <t>FAIZAL NUR IKHSAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AQIL AZIZI</t>
+  </si>
+  <si>
+    <t>RAHMAH FAZILA PUTRI</t>
+  </si>
+  <si>
+    <t>ALLIYA AZZAHRA PUTRI BASKURI ACHMAD</t>
+  </si>
+  <si>
+    <t>RAFA ANDIKA ABIYU</t>
+  </si>
+  <si>
+    <t>AWAN SWARGA PANJI ASMORO</t>
+  </si>
+  <si>
+    <t>ARHABURRIZQI ZAIDAN ATHALLAH</t>
+  </si>
+  <si>
+    <t>KAMAY KEGY ANINDITA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ALFATIH</t>
+  </si>
+  <si>
+    <t>ANANTAVIRYA SATWIKA PUTRA</t>
+  </si>
+  <si>
+    <t>TALITHA PUTRI PAMBAYUN</t>
+  </si>
+  <si>
+    <t>Menjelaskan dan melakukan operasi penjumlahan, pengurangan, perkalian, dan pembagian yang melibatkan bilangan bulat negatif</t>
+  </si>
+  <si>
+    <t>Menjelaskan dan melakukan operasi hitung campuran yang melibatkan bilangan cacah, pecahan dan/atau desimal dalam berbagai bentuk sesuai urutan operasi</t>
+  </si>
+  <si>
+    <t>Menjelaskan titik pusat, jari-jari, diameter, busur, tali busur, tembereng, dan juring</t>
+  </si>
+  <si>
+    <t>Menjelaskan taksiran keliling dan luas lingkaran</t>
+  </si>
+  <si>
+    <t>Membandingkan prisma, tabung, limas, kerucut, dan bola.</t>
+  </si>
+  <si>
+    <t>Menjelaskan bangun ruang yang merupakan gabungan dari beberapa bangun ruang, serta luas permukaan dan volumenya</t>
+  </si>
+  <si>
+    <t>Menjelaskan dan membandingkan modus, median, dan mean dari data tunggal untuk menentukan nilai mana yang paling tepat mewakili data</t>
   </si>
 </sst>
 </file>
@@ -431,7 +526,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,19 +633,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3183651619</v>
+        <v>2018001</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -558,19 +653,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3183529391</v>
+        <v>2018002</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -578,21 +673,521 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3186518013</v>
+        <v>2018003</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
     </row>
@@ -617,7 +1212,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -724,19 +1319,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3183651619</v>
+        <v>2018001</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -744,19 +1339,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3183529391</v>
+        <v>2018002</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -764,21 +1359,521 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3186518013</v>
+        <v>2018003</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
     </row>
@@ -803,7 +1898,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,19 +2005,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3183651619</v>
+        <v>2018001</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -930,19 +2025,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3183529391</v>
+        <v>2018002</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -950,21 +2045,3951 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3186518013</v>
+        <v>2018003</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
       <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
       <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.10" hidden="true" style="0"/>
+    <col min="4" max="4" width="9.10" hidden="true" style="0"/>
+    <col min="5" max="5" width="9.10" hidden="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2018001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2018002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2018003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2018004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2018005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2018006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>2018007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2018008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2018009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2018010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2018011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2018012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2018013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>98</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>2018014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>2018015</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2018016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2018017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>102</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>2018018</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>2018019</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>2018020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>105</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>2018021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2018022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2018023</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2018024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2018025</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2018026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2018027</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2018028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
     </row>
